--- a/sputnik/personal/uch/uch41.xlsx
+++ b/sputnik/personal/uch/uch41.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -46,13 +43,22 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты на 90 дней</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №41</t>
+  </si>
+  <si>
+    <t>Оплачена арендная плата за зем.уч.(с 01.01.2019 по 31.12.2019)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +70,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -160,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,16 +200,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -504,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -522,9 +541,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -533,11 +554,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>647.25</v>
@@ -545,11 +566,11 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>43221</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>9726.01</v>
@@ -557,11 +578,11 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>43337</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
@@ -569,11 +590,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>43337</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
@@ -581,11 +602,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>43466</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7">
         <v>828.48</v>
@@ -593,11 +614,11 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>43586</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="10">
         <v>9587.93</v>
@@ -605,33 +626,39 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
+        <v>43698</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7">
+        <v>828.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>43829</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10">
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10">
         <v>9587.93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>43829</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17">
         <v>862.91</v>
       </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,10 +667,13 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch41.xlsx
+++ b/sputnik/personal/uch/uch41.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Оплачена арендная плата за зем.уч.(с 01.01.2019 по 31.12.2019)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,6 +219,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,7 +530,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -662,9 +666,15 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8">
+        <v>11201.74</v>
+      </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch41.xlsx
+++ b/sputnik/personal/uch/uch41.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,8 +678,8 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>

--- a/sputnik/personal/uch/uch41.xlsx
+++ b/sputnik/personal/uch/uch41.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2021/2022</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,10 +681,28 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="18">
+        <v>44314</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>11201.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>44314</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
+        <v>1798.26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch41.xlsx
+++ b/sputnik/personal/uch/uch41.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Оплата членского взноса 2021/2022</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена арендная плата за зем.уч.(с 01.01.2021 по 31.12.202)</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -703,6 +709,54 @@
       <c r="D14" s="8">
         <v>1798.26</v>
       </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9705.5300000000007</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>425.63</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch41.xlsx
+++ b/sputnik/personal/uch/uch41.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Начислена арендная плата за зем.уч.(с 01.01.2021 по 31.12.202)</t>
+  </si>
+  <si>
+    <t>Оплачена арендная плата за зем.уч.(с 01.01.2021 по 31.12.202)</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -735,16 +738,28 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="18">
+        <v>44393</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8">
+        <v>10131.16</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="18">
+        <v>44393</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8">
+        <v>425.63</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>

--- a/sputnik/personal/uch/uch41.xlsx
+++ b/sputnik/personal/uch/uch41.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Оплачено</t>
   </si>
@@ -63,17 +63,23 @@
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
   <si>
-    <t>Начислена арендная плата за зем.уч.(с 01.01.2021 по 31.12.202)</t>
-  </si>
-  <si>
     <t>Оплачена арендная плата за зем.уч.(с 01.01.2021 по 31.12.202)</t>
+  </si>
+  <si>
+    <t>Начислена арендная плата за зем.уч.(с 01.01.2020 по 31.12.2020)</t>
+  </si>
+  <si>
+    <t>Начислена арендная плата за зем.уч.(с 01.01.2021 по 31.12.2021)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +102,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,7 +118,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -197,41 +233,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -539,10 +607,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J23" sqref="I23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -556,10 +624,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -570,208 +638,232 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="16">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="18">
         <v>647.25</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="16">
         <v>43221</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="18">
         <v>9726.01</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="16">
         <v>43337</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21">
         <v>9726.01</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="16">
         <v>43337</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23">
         <v>647.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="9">
         <v>43466</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <v>828.48</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>43586</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="13">
         <v>9587.93</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>43698</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="7">
+      <c r="C9" s="13"/>
+      <c r="D9" s="11">
         <v>828.48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>43829</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10">
+      <c r="C10" s="15"/>
+      <c r="D10" s="13">
         <v>9587.93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="7">
         <v>43829</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="8">
         <v>862.91</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="27">
+        <v>43831</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="29">
+        <v>414.24</v>
+      </c>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <v>43952</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8">
-        <v>11201.74</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="C13" s="30">
+        <v>10787.5</v>
+      </c>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>44067</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30">
+        <v>10787.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>44067</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30">
+        <v>414.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>44197</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="34">
+        <v>425.63</v>
+      </c>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>44314</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25">
+        <v>1798.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>44317</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="25">
+        <v>11503.79</v>
+      </c>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>44393</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8">
-        <v>11201.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>44314</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8">
-        <v>1798.26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>44317</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25">
         <v>9705.5300000000007</v>
       </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>44317</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>44393</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34">
         <v>425.63</v>
       </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>44393</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8">
-        <v>10131.16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>44393</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8">
-        <v>425.63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
